--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>624534.7015143691</v>
+        <v>622096.3115559523</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>345.8319039550277</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>363.185294550255</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.10770370628386</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>44.45149398001069</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247809</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>36.02766158664661</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -871,13 +871,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>98.59130099167034</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>31.41582219992015</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>97.32228826427313</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1102,13 +1102,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>119.8620943363778</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>107.8704128139745</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>275.0428790940305</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>308.8109618228758</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1300,13 +1300,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>26.66925886831073</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>70.37402966055299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>331.6388439349719</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081966</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
-        <v>200.617369850353</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,7 +1464,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>111.3598553131475</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.4539897919539</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
         <v>217.4819944627618</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>176.3350943632452</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>134.3542165280238</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462278</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819418</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>55.52079624059935</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2245,16 +2245,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833657</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,10 +2290,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>110.9396563989393</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892457</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>22.65115569188744</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>107.4021082756239</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986295</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699796</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>51.36569740310337</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>26.1362719570587</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>95.2538199663625</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.405450327287</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699768</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>65.44930784064623</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>22.65115569188744</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1491.569348694472</v>
+        <v>1250.335715170999</v>
       </c>
       <c r="C2" t="n">
-        <v>1142.244193184343</v>
+        <v>881.3731982305878</v>
       </c>
       <c r="D2" t="n">
-        <v>783.9784945775923</v>
+        <v>523.1074996238374</v>
       </c>
       <c r="E2" t="n">
-        <v>417.1246616985469</v>
+        <v>523.1074996238374</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>523.1074996238374</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.0350494688338</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>108.0350494688338</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V2" t="n">
-        <v>2994.542934265599</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W2" t="n">
-        <v>2641.774278995485</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.308520734405</v>
+        <v>2027.074887210933</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.169188758593</v>
+        <v>1636.935555235121</v>
       </c>
     </row>
     <row r="3">
@@ -4383,70 +4383,70 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>331.5406302391191</v>
+        <v>249.7936412903429</v>
       </c>
       <c r="C4" t="n">
-        <v>331.5406302391191</v>
+        <v>249.7936412903429</v>
       </c>
       <c r="D4" t="n">
-        <v>331.5406302391191</v>
+        <v>249.7936412903429</v>
       </c>
       <c r="E4" t="n">
-        <v>331.5406302391191</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4513,25 +4513,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
         <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1324.424418523514</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V4" t="n">
-        <v>1069.739930317627</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W4" t="n">
-        <v>780.3227602806666</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="X4" t="n">
-        <v>552.3332093826492</v>
+        <v>652.2346852641127</v>
       </c>
       <c r="Y4" t="n">
-        <v>331.5406302391191</v>
+        <v>431.4421061205826</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1561.900772669911</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C5" t="n">
-        <v>1561.900772669911</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D5" t="n">
-        <v>1203.635074063161</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>817.8468214649163</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>810.9013207157128</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>395.8288705607093</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>98.2452701694765</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4586,31 +4586,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3227.300479928088</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3021.322732312311</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2767.792255586147</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176917</v>
+        <v>2436.729368242576</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906803</v>
+        <v>2083.960712972462</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.040104645723</v>
+        <v>1710.494954711382</v>
       </c>
       <c r="Y5" t="n">
-        <v>1561.900772669911</v>
+        <v>1320.35562273557</v>
       </c>
     </row>
     <row r="6">
@@ -4638,16 +4638,16 @@
         <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031485</v>
       </c>
       <c r="L6" t="n">
         <v>765.1517452158141</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>774.7644039315074</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="C7" t="n">
-        <v>774.7644039315074</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="D7" t="n">
-        <v>624.6477645191717</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G7" t="n">
         <v>310.0549803959803</v>
@@ -4720,7 +4720,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1837.464090846021</v>
+        <v>1302.938768680375</v>
       </c>
       <c r="V7" t="n">
-        <v>1582.779602640134</v>
+        <v>1048.254280474488</v>
       </c>
       <c r="W7" t="n">
-        <v>1293.362432603173</v>
+        <v>758.8371104375277</v>
       </c>
       <c r="X7" t="n">
-        <v>1065.372881705156</v>
+        <v>530.8475595395104</v>
       </c>
       <c r="Y7" t="n">
-        <v>956.4128687617472</v>
+        <v>310.0549803959803</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1422.200456328344</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1422.200456328344</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1063.934757721593</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176916</v>
+        <v>2535.03470992366</v>
       </c>
       <c r="W8" t="n">
-        <v>2678.274518176916</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X8" t="n">
-        <v>2366.344253709365</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y8" t="n">
-        <v>1976.204921733553</v>
+        <v>1808.800296392465</v>
       </c>
     </row>
     <row r="9">
@@ -4857,34 +4857,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158134</v>
@@ -4902,7 +4902,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
         <v>2564.909189125857</v>
@@ -4911,16 +4911,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>994.2880032601528</v>
+        <v>533.4780323548192</v>
       </c>
       <c r="C10" t="n">
-        <v>825.3518203322459</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U10" t="n">
-        <v>1837.464090846021</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1582.779602640134</v>
+        <v>970.0546934046023</v>
       </c>
       <c r="W10" t="n">
-        <v>1293.362432603173</v>
+        <v>943.1160480830763</v>
       </c>
       <c r="X10" t="n">
-        <v>1065.372881705156</v>
+        <v>715.126497185059</v>
       </c>
       <c r="Y10" t="n">
-        <v>994.2880032601528</v>
+        <v>715.126497185059</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614634</v>
       </c>
       <c r="D11" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E11" t="n">
         <v>1204.208000760437</v>
@@ -5030,61 +5030,61 @@
         <v>793.22209597083</v>
       </c>
       <c r="G11" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H11" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I11" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251932</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128749</v>
+        <v>841.9378825128758</v>
       </c>
       <c r="L11" t="n">
-        <v>1461.457663018649</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M11" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N11" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333931</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021279</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q11" t="n">
-        <v>4514.497374127286</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R11" t="n">
-        <v>4640.581161304024</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S11" t="n">
-        <v>4555.113898070873</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T11" t="n">
-        <v>4353.904749750192</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.198054476972</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X11" t="n">
-        <v>3093.963640945778</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F12" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G12" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I12" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J12" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="K12" t="n">
-        <v>92.81162322608048</v>
+        <v>423.3203657894393</v>
       </c>
       <c r="L12" t="n">
-        <v>141.6400447072594</v>
+        <v>914.0526986331906</v>
       </c>
       <c r="M12" t="n">
-        <v>733.658398959387</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="N12" t="n">
-        <v>1355.754362358723</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="O12" t="n">
-        <v>1902.630837358917</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P12" t="n">
-        <v>2322.214355784993</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q12" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R12" t="n">
         <v>2552.77562977024</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1015.754398433617</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="C13" t="n">
-        <v>846.8182155057104</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="D13" t="n">
-        <v>696.7015760933747</v>
+        <v>381.5742876855605</v>
       </c>
       <c r="E13" t="n">
-        <v>548.7884825109816</v>
+        <v>381.5742876855605</v>
       </c>
       <c r="F13" t="n">
-        <v>401.8985350130712</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="G13" t="n">
-        <v>234.6843401876501</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H13" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I13" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J13" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K13" t="n">
-        <v>431.4224730861979</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L13" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M13" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N13" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O13" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P13" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q13" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R13" t="n">
-        <v>2428.375774410167</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S13" t="n">
-        <v>2428.375774410167</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T13" t="n">
-        <v>2208.696992124549</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U13" t="n">
-        <v>1919.620778439275</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V13" t="n">
-        <v>1664.936290233388</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W13" t="n">
-        <v>1375.519120196428</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X13" t="n">
-        <v>1197.402863263857</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y13" t="n">
-        <v>1197.402863263857</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="14">
@@ -5258,70 +5258,70 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983537</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345712012</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888081</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908978</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057777</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,28 +5534,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327597</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048529</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D19" t="n">
-        <v>444.7013164925171</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>296.788222910124</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>149.8982754122136</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5744,58 +5744,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400696</v>
       </c>
       <c r="C22" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>194.800778399827</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>194.800778399827</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2085.00228649874</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1795.927059842937</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V22" t="n">
-        <v>1541.24257163705</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1251.82540160009</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138395</v>
       </c>
       <c r="Y22" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703094</v>
       </c>
     </row>
     <row r="23">
@@ -5978,16 +5978,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
         <v>407.9027098310023</v>
@@ -6172,25 +6172,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2338.476105524075</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2338.476105524075</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6206,40 +6206,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6306,19 +6306,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121626</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2395.078540748843</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2395.078540748843</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6455,55 +6455,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>119.2902967703784</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>119.2902967703784</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>119.2902967703784</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
         <v>2319.799627685893</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.3556038098242</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>814.4194208819173</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>664.3027814695815</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>516.3896878871884</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>369.499740389278</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>202.303641104158</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,37 +6710,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239597</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L33" t="n">
-        <v>429.5088224239597</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1053.171308869727</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>884.2351259418201</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>734.1184865294844</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>586.2053929470912</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>439.3154454491809</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>272.1193461640608</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603203</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947401</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741514</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1683.601903741514</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1455.612352843497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1234.819773699967</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6950,37 +6950,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,13 +7008,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
         <v>427.7414352191925</v>
@@ -7023,7 +7023,7 @@
         <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C37" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797698</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R37" t="n">
-        <v>2380.852671620012</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.997837274916</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T37" t="n">
-        <v>1978.396372297858</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V37" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W37" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X37" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y37" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362687</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.793114229131</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468418</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7388,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>372.4964262156759</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>867.8220324314346</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.793114229131</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468418</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963486</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7643,25 +7643,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7731,22 +7731,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22553,7 +22553,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>18.74507552200681</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22562,10 +22562,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4692260666420659</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,10 +22598,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22705,19 +22705,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>110.4063010599226</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>50.29152613728991</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>50.29152613729332</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>37.25561770506482</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440905</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108359</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>49.37456102579199</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>32.89260457060399</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>46.45968844823273</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23890,19 +23890,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>110.0033420516695</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>45.44677382459467</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922728</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>106.4657939283489</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>73.62417772602069</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>46.45968844823275</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>15.00954930701832</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>114.1584408891651</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>45.04089287986136</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>46.45968844823551</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.9259388694754307</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294945</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>949668.0444960332</v>
+        <v>949668.0444960328</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1014328.70591776</v>
+        <v>1014328.705917761</v>
       </c>
     </row>
     <row r="6">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1019912.24098273</v>
+        <v>1019912.240982729</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1019912.24098273</v>
+        <v>1019912.240982729</v>
       </c>
     </row>
     <row r="13">
@@ -26314,22 +26314,22 @@
         <v>375475.6212503244</v>
       </c>
       <c r="C2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321415</v>
       </c>
       <c r="D2" t="n">
         <v>410520.8849321417</v>
       </c>
       <c r="E2" t="n">
-        <v>401339.8858190153</v>
+        <v>401339.8858190155</v>
       </c>
       <c r="F2" t="n">
         <v>403573.299845003</v>
       </c>
       <c r="G2" t="n">
+        <v>403573.2998450031</v>
+      </c>
+      <c r="H2" t="n">
         <v>403573.2998450029</v>
-      </c>
-      <c r="H2" t="n">
-        <v>403573.299845003</v>
       </c>
       <c r="I2" t="n">
         <v>403573.299845003</v>
@@ -26338,22 +26338,22 @@
         <v>403573.2998450031</v>
       </c>
       <c r="K2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="L2" t="n">
+        <v>403573.2998450031</v>
+      </c>
+      <c r="M2" t="n">
         <v>403573.299845003</v>
       </c>
-      <c r="M2" t="n">
-        <v>403573.2998450029</v>
-      </c>
       <c r="N2" t="n">
+        <v>403573.2998450031</v>
+      </c>
+      <c r="O2" t="n">
+        <v>403573.2998450031</v>
+      </c>
+      <c r="P2" t="n">
         <v>403573.299845003</v>
-      </c>
-      <c r="O2" t="n">
-        <v>403573.299845003</v>
-      </c>
-      <c r="P2" t="n">
-        <v>403573.2998450031</v>
       </c>
     </row>
     <row r="3">
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>313680.0588189851</v>
+        <v>313680.0588189854</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.26311504165</v>
+        <v>11452.26311504109</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>81924.27863832905</v>
+        <v>81924.27863832915</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.017355704841</v>
+        <v>3077.01735570473</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50958.64565978393</v>
+        <v>50958.64565978365</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815704</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815716</v>
+        <v>90964.01098815705</v>
       </c>
       <c r="E4" t="n">
         <v>11770.44359558047</v>
@@ -26454,7 +26454,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680578</v>
       </c>
       <c r="P4" t="n">
         <v>11776.97621680582</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1112161.710698445</v>
+        <v>-1112336.937016855</v>
       </c>
       <c r="C6" t="n">
-        <v>211622.9333825912</v>
+        <v>211622.9333825913</v>
       </c>
       <c r="D6" t="n">
-        <v>211622.9333825912</v>
+        <v>211622.9333825911</v>
       </c>
       <c r="E6" t="n">
-        <v>-24252.74510938863</v>
+        <v>-24298.65010495438</v>
       </c>
       <c r="F6" t="n">
-        <v>279221.5306892485</v>
+        <v>279186.7927638133</v>
       </c>
       <c r="G6" t="n">
-        <v>290673.79380429</v>
+        <v>290639.0558788545</v>
       </c>
       <c r="H6" t="n">
-        <v>290673.7938042901</v>
+        <v>290639.0558788542</v>
       </c>
       <c r="I6" t="n">
-        <v>290673.7938042901</v>
+        <v>290639.0558788544</v>
       </c>
       <c r="J6" t="n">
-        <v>73142.5914070127</v>
+        <v>73107.85348157692</v>
       </c>
       <c r="K6" t="n">
-        <v>290673.7938042901</v>
+        <v>290639.0558788544</v>
       </c>
       <c r="L6" t="n">
-        <v>290673.7938042901</v>
+        <v>290639.0558788544</v>
       </c>
       <c r="M6" t="n">
-        <v>208749.5151659609</v>
+        <v>208714.7772405252</v>
       </c>
       <c r="N6" t="n">
-        <v>287596.7764485852</v>
+        <v>287562.0385231497</v>
       </c>
       <c r="O6" t="n">
-        <v>290673.7938042901</v>
+        <v>290639.0558788542</v>
       </c>
       <c r="P6" t="n">
-        <v>290673.7938042903</v>
+        <v>290639.0558788544</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
-        <v>1358.041048716385</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26814,10 +26814,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>268.2643481230871</v>
+        <v>268.2643481230873</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625288375</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26984,19 +26984,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>328.7438349237135</v>
+        <v>328.743834923714</v>
       </c>
       <c r="F4" t="n">
-        <v>12.56299777364211</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.7438349237133</v>
+        <v>328.7438349237137</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364211</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.7438349237135</v>
+        <v>328.743834923714</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364211</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19.4409878159799</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>325.2796066984583</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,13 +27591,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>187.6205372139426</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>10.1611075730058</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>11.86547352390271</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>166.3497438692351</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>110.7142405381203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>106.8874909782313</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>60.92013885559328</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>259.8537394682803</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>148.2106236915418</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28491,7 +28491,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -28500,7 +28500,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -28971,7 +28971,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.034586771846195e-12</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -29013,7 +29013,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29958,7 +29958,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30171,7 +30171,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>-2.788709462066248e-12</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377424</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122281</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K11" t="n">
-        <v>694.4639760830429</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364261</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M11" t="n">
-        <v>958.6336695293306</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229606</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O11" t="n">
-        <v>919.857844208695</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687522</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148605</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S11" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.921069425540904</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,34 +31841,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>187.8760176396509</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
-        <v>740.13237155043</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927636</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426203</v>
+        <v>507.4786487269579</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982452</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q12" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S12" t="n">
-        <v>54.25758340862159</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U12" t="n">
         <v>0.1921756201013754</v>
@@ -31908,34 +31908,34 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.448926481291842</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H13" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284924</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J13" t="n">
-        <v>173.1391022273332</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K13" t="n">
-        <v>284.5207311900885</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416873</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P13" t="n">
-        <v>296.1865264282423</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q13" t="n">
         <v>205.0641983561742</v>
@@ -31944,7 +31944,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851327</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T13" t="n">
         <v>10.46359496551969</v>
@@ -32078,7 +32078,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>460.4622569139909</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,7 +32564,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
@@ -32792,10 +32792,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>232.1537035940586</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32965,7 +32965,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -33026,7 +33026,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,13 +33035,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>526.2989357561996</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>152.5685698206127</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>590.4022545401851</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>395.1848490935914</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>290.1088399635148</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>396.9700886943664</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>729.0844763571695</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,16 +34205,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>266.3926848685833</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>272.756932936465</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380623</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7775560664388</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2874363020579</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N11" t="n">
-        <v>744.7323009263696</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870083</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P11" t="n">
-        <v>553.8443926134826</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.254733440411</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R11" t="n">
-        <v>127.357360784584</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>49.32163785977673</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094304</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>552.4004797981759</v>
+        <v>364.8824042825134</v>
       </c>
       <c r="P12" t="n">
-        <v>423.821735783915</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q12" t="n">
-        <v>232.8901757426736</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066046</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K13" t="n">
-        <v>262.2512393642056</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L13" t="n">
-        <v>391.6786041243779</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N13" t="n">
-        <v>418.8847129209159</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>322.6208179396319</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,7 +36212,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36440,10 +36440,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>90.01966967204032</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,13 +36683,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>394.9572236728663</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,31 +36905,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>25.73094315394598</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>451.847874760311</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>253.0508151715731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,22 +37391,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>254.8360547723481</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191267</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>586.9504424351511</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>128.5512458942243</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>134.2025531565909</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
